--- a/biology/Botanique/Acrobolbaceae/Acrobolbaceae.xlsx
+++ b/biology/Botanique/Acrobolbaceae/Acrobolbaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acrobolbaceae sont une famille d'hépatiques de la classe des Jungermanniopsida.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (04 avril 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (04 avril 2020) :
 genre Acrobolbus
 genre Austrolophozia
 genre Conoscyphus
@@ -521,7 +535,7 @@
 genre Goebelobryum
 genre Lethocolea
 genre Saccogynidium
-Selon Tropicos                                           (4 avril 2020)[1] :
+Selon Tropicos                                           (4 avril 2020) :
 genre Acrobolbus Nees
 genre Austrolophozia R.M. Schust.
 genre Conoscyphus Mitt.
@@ -564,7 +578,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Eliza Amy Hodgson, « Hepatics from the subantarctic islands of New Zealand including "Cape Expedition" collections from the Auckland and Campbell Islands », Records of the Dominion Museum, Wellington, vol. 4, no 11,‎ 1962, p. 101–132.</t>
         </is>
